--- a/7. Documentation and Records Subsystem/DOC/DOC-703 - Excel Template.xlsx
+++ b/7. Documentation and Records Subsystem/DOC/DOC-703 - Excel Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ws/Dropbox/Evolunis/QMS/7. Documentation and Records Subsystem/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDFD0A-81EF-6343-9376-9D4484233F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91689C7-E71C-8A46-B02E-568D9AFA1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
   </si>
   <si>
     <t>Doc.no.: DOC-703
-Version: 002
+Version: 003
 Author: Evolunis GmbH</t>
   </si>
 </sst>
@@ -984,43 +984,52 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>672349</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>74707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
+      <xdr:colOff>1005316</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>695326</xdr:rowOff>
+      <xdr:rowOff>624640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2" descr="/Users/ws/ws/_EVOLUNIS/CI/Logo/evolunis_logowp.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2FC4BE-1DA0-AC64-36A7-146B32BEA0E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FD076E-0918-CE49-B2E9-ADDBEED4A0A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="342900" y="12700"/>
-          <a:ext cx="2240280" cy="682626"/>
+          <a:off x="672349" y="74707"/>
+          <a:ext cx="1976496" cy="549933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1358,15 +1367,15 @@
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P13" sqref="P13"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="96.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="3" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="96.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="56" customHeight="1">
@@ -1526,9 +1535,9 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Wingdings 2,Regular"&amp;16&amp;K000000£&amp;"Arial,Regular" &amp;"Calibri,Regular"Confidential - © Evolunis GmbH (MIT license)&amp;C&amp;"Helvetica,Regular"&amp;K000000&amp;A
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;16&amp;K000000openQMS - © Evolunis GmbH (MIT license)&amp;C&amp;"Helvetica,Regular"&amp;K000000&amp;A
 Page &amp;P of &amp;N&amp;R&amp;"Calibri,Regular"&amp;16&amp;K000000Copies are not controlled.</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
